--- a/biology/Médecine/Claudius_Amyand/Claudius_Amyand.xlsx
+++ b/biology/Médecine/Claudius_Amyand/Claudius_Amyand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claudius Amyand (c. 1681, Paris - 6 juillet 1740, Londres) est un chirurgien français né en France. Sa famille huguenote fut naturalisée anglaise en 1698. Il commença sa carrière de chirurgien dans l’armée des Flandres[1].
-Il fut l’auteur de la première appendicectomie réussie le 6 décembre 1735 à l'hôpital Saint George à Londres[2]. Il a laissé son nom à une forme atypique d’appendicite aiguë, la hernie de Amyand[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudius Amyand (c. 1681, Paris - 6 juillet 1740, Londres) est un chirurgien français né en France. Sa famille huguenote fut naturalisée anglaise en 1698. Il commença sa carrière de chirurgien dans l’armée des Flandres.
+Il fut l’auteur de la première appendicectomie réussie le 6 décembre 1735 à l'hôpital Saint George à Londres. Il a laissé son nom à une forme atypique d’appendicite aiguë, la hernie de Amyand.
 Il est le père de George Amyand.
 </t>
         </is>
